--- a/ConfigTable/Datas/__tables__.xlsx
+++ b/ConfigTable/Datas/__tables__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -149,12 +162,21 @@
   </si>
   <si>
     <t>ui/证人.xlsx</t>
+  </si>
+  <si>
+    <t>item.TbItem</t>
+  </si>
+  <si>
+    <t>item_data</t>
+  </si>
+  <si>
+    <t>道具.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1090,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1279,6 +1301,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ConfigTable/Datas/__tables__.xlsx
+++ b/ConfigTable/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -108,60 +108,6 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>game.TbGameProcess</t>
-  </si>
-  <si>
-    <t>game_process</t>
-  </si>
-  <si>
-    <t>game/流程控制.xlsx</t>
-  </si>
-  <si>
-    <t>save.TbStoryTypeSaveDataIndex</t>
-  </si>
-  <si>
-    <t>game_save_index</t>
-  </si>
-  <si>
-    <t>save/故事类型.xlsx</t>
-  </si>
-  <si>
-    <t>dialogue.TbStory</t>
-  </si>
-  <si>
-    <t>dialogue_story</t>
-  </si>
-  <si>
-    <t>story/故事表.xlsx</t>
-  </si>
-  <si>
-    <t>inquiry.TbExhibit</t>
-  </si>
-  <si>
-    <t>inquiry_exhibit</t>
-  </si>
-  <si>
-    <t>ui/证物.xlsx</t>
-  </si>
-  <si>
-    <t>inquiry.TbTestimony</t>
-  </si>
-  <si>
-    <t>inquiry_testimony</t>
-  </si>
-  <si>
-    <t>ui/证言.xlsx</t>
-  </si>
-  <si>
-    <t>inquiry.TbPersonnel</t>
-  </si>
-  <si>
-    <t>inquiry_personnel</t>
-  </si>
-  <si>
-    <t>ui/证人.xlsx</t>
   </si>
   <si>
     <t>item.TbItem</t>
@@ -1112,13 +1058,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="34.125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
@@ -1231,90 +1177,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ConfigTable/Datas/__tables__.xlsx
+++ b/ConfigTable/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>道具.xlsx</t>
+  </si>
+  <si>
+    <t>fsm.TbFsmState</t>
+  </si>
+  <si>
+    <t>fsm_state</t>
+  </si>
+  <si>
+    <t>状态机状态.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1058,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="34.125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
@@ -1177,6 +1186,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
